--- a/homework/hw15/工作簿1.xlsx
+++ b/homework/hw15/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27915" windowHeight="12225"/>
+    <workbookView windowWidth="22710" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,15 +53,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,9 +73,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,8 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +130,51 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,74 +195,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,91 +205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,19 +229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +259,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +307,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,21 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,7 +412,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,30 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -481,168 +496,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,6 +732,70 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="" altLang="en-US" sz="2000" u="none" strike="noStrike" cap="none" normalizeH="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:uFill>
+              </a:rPr>
+              <a:t>指数运算电路输入输出图线与拟合</a:t>
+            </a:r>
+            <a:endParaRPr lang="" altLang="en-US" sz="2000" u="none" strike="noStrike" cap="none" normalizeH="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:uFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -741,25 +805,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -768,8 +813,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.125361111111111"/>
-          <c:y val="0.172916666666667"/>
+          <c:x val="0.143343285434738"/>
+          <c:y val="0.157245880579267"/>
           <c:w val="0.844083333333333"/>
           <c:h val="0.711666666666667"/>
         </c:manualLayout>
@@ -832,7 +877,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1198,6 +1243,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000"/>
+              <a:t>指数运算电路输入输出图线与拟合</a:t>
+            </a:r>
+            <a:endParaRPr sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1207,25 +1278,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1234,8 +1286,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0748915806789293"/>
-          <c:y val="0.00299910026991902"/>
+          <c:x val="0.0554508748317631"/>
+          <c:y val="0.0756772968109567"/>
           <c:w val="0.92286526095409"/>
           <c:h val="0.875477356792962"/>
         </c:manualLayout>
@@ -1285,7 +1337,53 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00396291311499925"/>
+                  <c:y val="0.0705788263520944"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr sz="1800"/>
+                      <a:t>y = 57331ln(x) + 730464</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr sz="1800"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr sz="1800"/>
+                      <a:t>R</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1800" baseline="35000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1800"/>
+                      <a:t> = 0.9967</a:t>
+                    </a:r>
+                    <a:endParaRPr sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2765,16 +2863,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>173990</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>605155</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2782,7 +2880,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="173990" y="2803525"/>
+        <a:off x="7934325" y="4633595"/>
         <a:ext cx="7301230" cy="4984115"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2795,16 +2893,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>85090</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>106045</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>156845</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2812,7 +2910,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10448290" y="1615440"/>
+        <a:off x="1270" y="2679065"/>
         <a:ext cx="8555355" cy="6351905"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3086,8 +3184,8 @@
   <sheetPr/>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
